--- a/Runs/Mass Effect Andromeda MP Solos.xlsx
+++ b/Runs/Mass Effect Andromeda MP Solos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0310E1F5-1846-4CEC-8A4D-CC45166A987B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25998AF1-5E97-48E9-A6DB-7CE44315149E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="-120" windowWidth="27945" windowHeight="18240" tabRatio="612" firstSheet="7" activeTab="14" xr2:uid="{CCED89DC-BF49-4220-9A68-F41240290D0F}"/>
+    <workbookView xWindow="29775" yWindow="-120" windowWidth="27945" windowHeight="18240" tabRatio="612" firstSheet="4" activeTab="14" xr2:uid="{CCED89DC-BF49-4220-9A68-F41240290D0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon Types" sheetId="6" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="312">
   <si>
     <t>Tech Type</t>
   </si>
@@ -902,6 +902,90 @@
   </si>
   <si>
     <t>https://i.imgur.com/jYMdzEf.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mP9p28pgzKY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EVcaPXD7sqY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Mo2FGpX1PI0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/FYf8i7IbxLc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HGZqkzx3Kvg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gfX0NTu0BNA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cLeV5guDyz0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/y4vNcRvnsY0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HnlI8pLSi8I</t>
+  </si>
+  <si>
+    <t>https://youtu.be/H1MofhElQ6Y</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RCTF3VkPgyE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mbG4mDNwGiU</t>
+  </si>
+  <si>
+    <t>https://youtu.be/lbqk4SZcnIo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hn3E3BzLzmM</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/L2jQwAK.jpg</t>
+  </si>
+  <si>
+    <t>Monk-Zheng</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MqmvKNQ2Q98</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OsT3thvAnbE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/t5p1pu7Kadc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NqopL3M9VWQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/FJGHPGppf5M</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OIlGEMPBjEY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1KGw6KRh6PQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RlJj4ODpz_U</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NfuW_8eT98Y</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IBkV6-Kli5U</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Q-07wvyQyDE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2sZifk-z1VQ</t>
   </si>
 </sst>
 </file>
@@ -941,12 +1025,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,8 +1129,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A808B6A5-BBA7-4CF2-9410-C0552AF589CB}" name="Table11" displayName="Table11" ref="A1:U82" totalsRowShown="0">
-  <autoFilter ref="A1:U82" xr:uid="{AB2C9F4C-A577-4CE6-943C-9C3E4447228F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A808B6A5-BBA7-4CF2-9410-C0552AF589CB}" name="Table11" displayName="Table11" ref="A1:U109" totalsRowShown="0">
+  <autoFilter ref="A1:U109" xr:uid="{AB2C9F4C-A577-4CE6-943C-9C3E4447228F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U56">
     <sortCondition ref="B1:B56"/>
   </sortState>
@@ -1784,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D8C6F2-C59D-4287-BECD-4DF863590FBA}">
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5634,39 +5719,1461 @@
         <v>0</v>
       </c>
     </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="3">
+        <v>43337</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" t="s">
+        <v>128</v>
+      </c>
+      <c r="F83" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" t="s">
+        <v>120</v>
+      </c>
+      <c r="H83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" t="s">
+        <v>221</v>
+      </c>
+      <c r="J83" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" t="s">
+        <v>220</v>
+      </c>
+      <c r="L83" t="s">
+        <v>154</v>
+      </c>
+      <c r="M83" t="s">
+        <v>154</v>
+      </c>
+      <c r="N83" t="s">
+        <v>132</v>
+      </c>
+      <c r="O83" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>156</v>
+      </c>
+      <c r="R83" t="s">
+        <v>284</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="3">
+        <v>43339</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2.269675925925926E-2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" t="s">
+        <v>115</v>
+      </c>
+      <c r="G84" t="s">
+        <v>119</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84" t="s">
+        <v>60</v>
+      </c>
+      <c r="K84" t="s">
+        <v>221</v>
+      </c>
+      <c r="L84" t="s">
+        <v>154</v>
+      </c>
+      <c r="M84" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>156</v>
+      </c>
+      <c r="R84" t="s">
+        <v>285</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>271</v>
+      </c>
+      <c r="B85" s="3">
+        <v>43340</v>
+      </c>
+      <c r="C85" s="2">
+        <v>9.4560185185185181E-3</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" t="s">
+        <v>120</v>
+      </c>
+      <c r="H85" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" t="s">
+        <v>221</v>
+      </c>
+      <c r="J85" t="s">
+        <v>8</v>
+      </c>
+      <c r="K85" t="s">
+        <v>220</v>
+      </c>
+      <c r="L85" t="s">
+        <v>133</v>
+      </c>
+      <c r="M85" t="s">
+        <v>133</v>
+      </c>
+      <c r="N85" t="s">
+        <v>133</v>
+      </c>
+      <c r="O85" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>155</v>
+      </c>
+      <c r="R85" t="s">
+        <v>286</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" s="3">
+        <v>43706</v>
+      </c>
+      <c r="C86" s="2">
+        <v>9.6990740740740735E-3</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" t="s">
+        <v>120</v>
+      </c>
+      <c r="H86" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" t="s">
+        <v>221</v>
+      </c>
+      <c r="J86" t="s">
+        <v>8</v>
+      </c>
+      <c r="K86" t="s">
+        <v>220</v>
+      </c>
+      <c r="L86" t="s">
+        <v>133</v>
+      </c>
+      <c r="M86" t="s">
+        <v>133</v>
+      </c>
+      <c r="N86" t="s">
+        <v>133</v>
+      </c>
+      <c r="O86" t="s">
+        <v>185</v>
+      </c>
+      <c r="P86" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>155</v>
+      </c>
+      <c r="R86" t="s">
+        <v>287</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="3">
+        <v>43708</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1.3055555555555556E-2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" t="s">
+        <v>123</v>
+      </c>
+      <c r="F87" t="s">
+        <v>114</v>
+      </c>
+      <c r="G87" t="s">
+        <v>119</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" t="s">
+        <v>221</v>
+      </c>
+      <c r="J87" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87" t="s">
+        <v>220</v>
+      </c>
+      <c r="L87" t="s">
+        <v>154</v>
+      </c>
+      <c r="M87" t="s">
+        <v>133</v>
+      </c>
+      <c r="N87" t="s">
+        <v>132</v>
+      </c>
+      <c r="O87" t="s">
+        <v>185</v>
+      </c>
+      <c r="P87" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>155</v>
+      </c>
+      <c r="R87" t="s">
+        <v>288</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="3">
+        <v>43345</v>
+      </c>
+      <c r="C88" s="2">
+        <v>3.2152777777777773E-2</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>115</v>
+      </c>
+      <c r="G88" t="s">
+        <v>120</v>
+      </c>
+      <c r="H88" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" t="s">
+        <v>221</v>
+      </c>
+      <c r="J88" t="s">
+        <v>50</v>
+      </c>
+      <c r="K88" t="s">
+        <v>221</v>
+      </c>
+      <c r="L88" t="s">
+        <v>132</v>
+      </c>
+      <c r="M88" t="s">
+        <v>132</v>
+      </c>
+      <c r="N88" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>156</v>
+      </c>
+      <c r="R88" t="s">
+        <v>289</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" s="3">
+        <v>43346</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2.7453703703703702E-2</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" t="s">
+        <v>123</v>
+      </c>
+      <c r="F89" t="s">
+        <v>114</v>
+      </c>
+      <c r="G89" t="s">
+        <v>119</v>
+      </c>
+      <c r="H89" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" t="s">
+        <v>221</v>
+      </c>
+      <c r="J89" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" t="s">
+        <v>221</v>
+      </c>
+      <c r="L89" t="s">
+        <v>154</v>
+      </c>
+      <c r="M89" t="s">
+        <v>133</v>
+      </c>
+      <c r="N89" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>156</v>
+      </c>
+      <c r="R89" t="s">
+        <v>290</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>271</v>
+      </c>
+      <c r="B90" s="3">
+        <v>43352</v>
+      </c>
+      <c r="C90" s="2">
+        <v>7.5925925925925926E-3</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" t="s">
+        <v>114</v>
+      </c>
+      <c r="G90" t="s">
+        <v>119</v>
+      </c>
+      <c r="H90" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" t="s">
+        <v>221</v>
+      </c>
+      <c r="J90" t="s">
+        <v>8</v>
+      </c>
+      <c r="K90" t="s">
+        <v>220</v>
+      </c>
+      <c r="L90" t="s">
+        <v>133</v>
+      </c>
+      <c r="M90" t="s">
+        <v>132</v>
+      </c>
+      <c r="P90" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>155</v>
+      </c>
+      <c r="R90" t="s">
+        <v>291</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="3">
+        <v>43352</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1.315972222222222E-2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>114</v>
+      </c>
+      <c r="G91" t="s">
+        <v>120</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" t="s">
+        <v>221</v>
+      </c>
+      <c r="J91" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>220</v>
+      </c>
+      <c r="L91" t="s">
+        <v>132</v>
+      </c>
+      <c r="M91" t="s">
+        <v>133</v>
+      </c>
+      <c r="N91" t="s">
+        <v>132</v>
+      </c>
+      <c r="P91" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>155</v>
+      </c>
+      <c r="R91" t="s">
+        <v>292</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="3">
+        <v>43353</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1.0960648148148148E-2</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" t="s">
+        <v>221</v>
+      </c>
+      <c r="J92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" t="s">
+        <v>220</v>
+      </c>
+      <c r="L92" t="s">
+        <v>132</v>
+      </c>
+      <c r="M92" t="s">
+        <v>132</v>
+      </c>
+      <c r="N92" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R92" t="s">
+        <v>293</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" s="3">
+        <v>43355</v>
+      </c>
+      <c r="C93" s="2">
+        <v>8.8773148148148153E-3</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" t="s">
+        <v>114</v>
+      </c>
+      <c r="G93" t="s">
+        <v>120</v>
+      </c>
+      <c r="H93" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" t="s">
+        <v>221</v>
+      </c>
+      <c r="J93" t="s">
+        <v>8</v>
+      </c>
+      <c r="K93" t="s">
+        <v>220</v>
+      </c>
+      <c r="L93" t="s">
+        <v>133</v>
+      </c>
+      <c r="M93" t="s">
+        <v>133</v>
+      </c>
+      <c r="N93" t="s">
+        <v>132</v>
+      </c>
+      <c r="P93" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>155</v>
+      </c>
+      <c r="R93" t="s">
+        <v>294</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" s="3">
+        <v>43362</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1.329861111111111E-2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
+        <v>120</v>
+      </c>
+      <c r="H94" t="s">
+        <v>57</v>
+      </c>
+      <c r="I94" t="s">
+        <v>221</v>
+      </c>
+      <c r="J94" t="s">
+        <v>153</v>
+      </c>
+      <c r="K94" t="s">
+        <v>221</v>
+      </c>
+      <c r="L94" t="s">
+        <v>132</v>
+      </c>
+      <c r="M94" t="s">
+        <v>132</v>
+      </c>
+      <c r="N94" t="s">
+        <v>132</v>
+      </c>
+      <c r="P94" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>155</v>
+      </c>
+      <c r="R94" t="s">
+        <v>295</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" s="3">
+        <v>43381</v>
+      </c>
+      <c r="C95" s="2">
+        <v>6.7939814814814816E-3</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" t="s">
+        <v>114</v>
+      </c>
+      <c r="G95" t="s">
+        <v>119</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" t="s">
+        <v>221</v>
+      </c>
+      <c r="J95" t="s">
+        <v>8</v>
+      </c>
+      <c r="K95" t="s">
+        <v>220</v>
+      </c>
+      <c r="L95" t="s">
+        <v>133</v>
+      </c>
+      <c r="M95" t="s">
+        <v>132</v>
+      </c>
+      <c r="O95" t="s">
+        <v>185</v>
+      </c>
+      <c r="P95" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>155</v>
+      </c>
+      <c r="R95" t="s">
+        <v>296</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>273</v>
+      </c>
+      <c r="B96" s="3">
+        <v>43341</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5.6226851851851854E-2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>114</v>
+      </c>
+      <c r="G96" t="s">
+        <v>120</v>
+      </c>
+      <c r="H96" t="s">
+        <v>53</v>
+      </c>
+      <c r="J96" t="s">
+        <v>53</v>
+      </c>
+      <c r="K96" t="s">
+        <v>219</v>
+      </c>
+      <c r="L96" t="s">
+        <v>154</v>
+      </c>
+      <c r="M96" t="s">
+        <v>132</v>
+      </c>
+      <c r="N96" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>155</v>
+      </c>
+      <c r="R96" t="s">
+        <v>297</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" s="3">
+        <v>43524</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" t="s">
+        <v>115</v>
+      </c>
+      <c r="G97" t="s">
+        <v>119</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" t="s">
+        <v>221</v>
+      </c>
+      <c r="J97" t="s">
+        <v>8</v>
+      </c>
+      <c r="K97" t="s">
+        <v>221</v>
+      </c>
+      <c r="L97" t="s">
+        <v>170</v>
+      </c>
+      <c r="M97" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>155</v>
+      </c>
+      <c r="R97" t="s">
+        <v>298</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" s="3">
+        <v>43527</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1.4409722222222221E-2</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" t="s">
+        <v>114</v>
+      </c>
+      <c r="G98" t="s">
+        <v>117</v>
+      </c>
+      <c r="H98" t="s">
+        <v>61</v>
+      </c>
+      <c r="I98" t="s">
+        <v>221</v>
+      </c>
+      <c r="J98" t="s">
+        <v>55</v>
+      </c>
+      <c r="K98" t="s">
+        <v>221</v>
+      </c>
+      <c r="L98" t="s">
+        <v>170</v>
+      </c>
+      <c r="M98" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>155</v>
+      </c>
+      <c r="R98" t="s">
+        <v>300</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="3">
+        <v>43546</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1.6886574074074075E-2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E99" t="s">
+        <v>122</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>119</v>
+      </c>
+      <c r="H99" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" t="s">
+        <v>221</v>
+      </c>
+      <c r="J99" t="s">
+        <v>8</v>
+      </c>
+      <c r="K99" t="s">
+        <v>221</v>
+      </c>
+      <c r="L99" t="s">
+        <v>134</v>
+      </c>
+      <c r="M99" t="s">
+        <v>134</v>
+      </c>
+      <c r="O99" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>156</v>
+      </c>
+      <c r="R99" t="s">
+        <v>301</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="3">
+        <v>43547</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3.3900462962962966E-2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>114</v>
+      </c>
+      <c r="G100" t="s">
+        <v>120</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>221</v>
+      </c>
+      <c r="J100" t="s">
+        <v>57</v>
+      </c>
+      <c r="K100" t="s">
+        <v>221</v>
+      </c>
+      <c r="L100" t="s">
+        <v>132</v>
+      </c>
+      <c r="M100" t="s">
+        <v>132</v>
+      </c>
+      <c r="N100" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>156</v>
+      </c>
+      <c r="R100" t="s">
+        <v>302</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" s="3">
+        <v>43551</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1.5706018518518518E-2</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" t="s">
+        <v>115</v>
+      </c>
+      <c r="G101" t="s">
+        <v>118</v>
+      </c>
+      <c r="H101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I101" t="s">
+        <v>221</v>
+      </c>
+      <c r="J101" t="s">
+        <v>57</v>
+      </c>
+      <c r="K101" t="s">
+        <v>221</v>
+      </c>
+      <c r="L101" t="s">
+        <v>134</v>
+      </c>
+      <c r="M101" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>155</v>
+      </c>
+      <c r="R101" t="s">
+        <v>303</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="3">
+        <v>43552</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1.480324074074074E-2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" t="s">
+        <v>114</v>
+      </c>
+      <c r="G102" t="s">
+        <v>119</v>
+      </c>
+      <c r="H102" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s">
+        <v>221</v>
+      </c>
+      <c r="J102" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" t="s">
+        <v>221</v>
+      </c>
+      <c r="L102" t="s">
+        <v>133</v>
+      </c>
+      <c r="M102" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>156</v>
+      </c>
+      <c r="R102" t="s">
+        <v>304</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="3">
+        <v>43552</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1.8379629629629628E-2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" t="s">
+        <v>114</v>
+      </c>
+      <c r="G103" t="s">
+        <v>119</v>
+      </c>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s">
+        <v>221</v>
+      </c>
+      <c r="J103" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" t="s">
+        <v>221</v>
+      </c>
+      <c r="L103" t="s">
+        <v>132</v>
+      </c>
+      <c r="M103" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>156</v>
+      </c>
+      <c r="R103" t="s">
+        <v>305</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>152</v>
+      </c>
+      <c r="B104" s="3">
+        <v>43552</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1.5335648148148147E-2</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" t="s">
+        <v>114</v>
+      </c>
+      <c r="G104" t="s">
+        <v>119</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>221</v>
+      </c>
+      <c r="J104" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" t="s">
+        <v>221</v>
+      </c>
+      <c r="L104" t="s">
+        <v>170</v>
+      </c>
+      <c r="M104" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>156</v>
+      </c>
+      <c r="R104" t="s">
+        <v>306</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>152</v>
+      </c>
+      <c r="B105" s="3">
+        <v>43552</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1.480324074074074E-2</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" t="s">
+        <v>115</v>
+      </c>
+      <c r="G105" t="s">
+        <v>119</v>
+      </c>
+      <c r="H105" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" t="s">
+        <v>221</v>
+      </c>
+      <c r="J105" t="s">
+        <v>211</v>
+      </c>
+      <c r="K105" t="s">
+        <v>221</v>
+      </c>
+      <c r="L105" t="s">
+        <v>132</v>
+      </c>
+      <c r="M105" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>156</v>
+      </c>
+      <c r="R105" t="s">
+        <v>307</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="3">
+        <v>43555</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2.2418981481481481E-2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" t="s">
+        <v>115</v>
+      </c>
+      <c r="G106" t="s">
+        <v>119</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" t="s">
+        <v>221</v>
+      </c>
+      <c r="J106" t="s">
+        <v>57</v>
+      </c>
+      <c r="K106" t="s">
+        <v>221</v>
+      </c>
+      <c r="L106" t="s">
+        <v>170</v>
+      </c>
+      <c r="M106" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>156</v>
+      </c>
+      <c r="R106" t="s">
+        <v>308</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" s="3">
+        <v>43556</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1.5486111111111112E-2</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" t="s">
+        <v>114</v>
+      </c>
+      <c r="G107" t="s">
+        <v>119</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>221</v>
+      </c>
+      <c r="J107" t="s">
+        <v>7</v>
+      </c>
+      <c r="K107" t="s">
+        <v>221</v>
+      </c>
+      <c r="L107" t="s">
+        <v>132</v>
+      </c>
+      <c r="M107" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>156</v>
+      </c>
+      <c r="R107" t="s">
+        <v>309</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="3">
+        <v>43557</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1.9780092592592592E-2</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>119</v>
+      </c>
+      <c r="H108" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" t="s">
+        <v>60</v>
+      </c>
+      <c r="K108" t="s">
+        <v>221</v>
+      </c>
+      <c r="L108" t="s">
+        <v>170</v>
+      </c>
+      <c r="M108" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>156</v>
+      </c>
+      <c r="R108" t="s">
+        <v>310</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="3">
+        <v>43562</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1.3101851851851852E-2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" t="s">
+        <v>115</v>
+      </c>
+      <c r="G109" t="s">
+        <v>120</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+      <c r="I109" t="s">
+        <v>221</v>
+      </c>
+      <c r="J109" t="s">
+        <v>8</v>
+      </c>
+      <c r="K109" t="s">
+        <v>220</v>
+      </c>
+      <c r="L109" t="s">
+        <v>133</v>
+      </c>
+      <c r="M109" t="s">
+        <v>132</v>
+      </c>
+      <c r="N109" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>156</v>
+      </c>
+      <c r="R109" t="s">
+        <v>311</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E82" xr:uid="{61D24CE0-6420-486E-85E1-A3BDABF06A0E}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E109" xr:uid="{61D24CE0-6420-486E-85E1-A3BDABF06A0E}">
       <formula1>vlMap</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F82" xr:uid="{CC8A0528-5C62-4000-A709-5C724E949FDB}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F109" xr:uid="{CC8A0528-5C62-4000-A709-5C724E949FDB}">
       <formula1>vlEnemy</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G82" xr:uid="{D6062CA4-1E95-48B0-8178-DE2CF8B4EE87}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G2:G109" xr:uid="{D6062CA4-1E95-48B0-8178-DE2CF8B4EE87}">
       <formula1>vlDifficulty</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H82" xr:uid="{8C8ECB8C-EB42-4269-83AD-2179877478A3}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H109" xr:uid="{8C8ECB8C-EB42-4269-83AD-2179877478A3}">
       <formula1>vlWeapon</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:N82" xr:uid="{3491F3EB-EE1F-4838-8025-C72D0950CFF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:N109" xr:uid="{3491F3EB-EE1F-4838-8025-C72D0950CFF8}">
       <formula1>vlObjective</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q82" xr:uid="{ED94B5A2-7D72-46FE-A03B-5F24D0286F50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q109" xr:uid="{ED94B5A2-7D72-46FE-A03B-5F24D0286F50}">
       <formula1>vlPlatform</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D82" xr:uid="{84016825-9962-49D7-A312-175CBDB83270}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D109" xr:uid="{84016825-9962-49D7-A312-175CBDB83270}">
       <formula1>vlCharacter</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J82" xr:uid="{B411DA32-91EA-41B4-8F40-8519E59447AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J109" xr:uid="{B411DA32-91EA-41B4-8F40-8519E59447AD}">
       <formula1>vlWeapon</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P82" xr:uid="{485DB4DE-1D55-4799-86E6-9C3150D9E6B0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P109" xr:uid="{485DB4DE-1D55-4799-86E6-9C3150D9E6B0}">
       <formula1>vlSpecial</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O82" xr:uid="{6614A0BA-F8D7-4E01-A586-61B736ACF904}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O109" xr:uid="{6614A0BA-F8D7-4E01-A586-61B736ACF904}">
       <formula1>vlModifier</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I82 K2:K82" xr:uid="{1D369ACD-892B-4871-AE72-67FBEEF25165}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I109 K2:K109" xr:uid="{1D369ACD-892B-4871-AE72-67FBEEF25165}">
       <formula1>vlVariant</formula1>
     </dataValidation>
   </dataValidations>
@@ -5682,8 +7189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4CF3F4-6F17-4515-8DD8-CDF0302CE694}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
